--- a/data_handler/bin/data/分析结果.xlsx
+++ b/data_handler/bin/data/分析结果.xlsx
@@ -7,19 +7,18 @@
   <sheets>
     <sheet name="道具补发" sheetId="1" r:id="rId1"/>
     <sheet name="其他问题" sheetId="2" r:id="rId4"/>
-    <sheet name="数据关联" sheetId="3" r:id="rId5"/>
-    <sheet name="系统bug反馈" sheetId="4" r:id="rId6"/>
-    <sheet name="修改密码" sheetId="5" r:id="rId7"/>
-    <sheet name="已禁平台添加设备号" sheetId="6" r:id="rId8"/>
-    <sheet name="账号绑定信息修改" sheetId="7" r:id="rId9"/>
-    <sheet name="充值未到账" sheetId="8" r:id="rId10"/>
+    <sheet name="系统bug反馈" sheetId="3" r:id="rId5"/>
+    <sheet name="修改密码" sheetId="4" r:id="rId6"/>
+    <sheet name="已禁平台添加设备号" sheetId="5" r:id="rId7"/>
+    <sheet name="账号绑定信息修改" sheetId="6" r:id="rId8"/>
+    <sheet name="充值未到账" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
   <si>
     <t>工单号</t>
   </si>
@@ -27,169 +26,820 @@
     <t>标题</t>
   </si>
   <si>
-    <t>【已处理】元宝补发</t>
-  </si>
-  <si>
-    <t>【已处理】充补发</t>
+    <t>联盟-联盟建设异常</t>
+  </si>
+  <si>
+    <t>寻访-寻访异常消耗体力丹</t>
+  </si>
+  <si>
+    <t>【无需处理】联盟-盟战奖励异常</t>
+  </si>
+  <si>
+    <t>【已处理】日冲补发</t>
+  </si>
+  <si>
+    <t>【无需处理】天坛-祈福奖励异常</t>
+  </si>
+  <si>
+    <t>【已处理】点点福袋补发</t>
+  </si>
+  <si>
+    <t>【待处理】金銮殿-资质果限时奖励消耗异常</t>
+  </si>
+  <si>
+    <t>玩家周充异常</t>
+  </si>
+  <si>
+    <t>【已处理】补发点点福袋</t>
+  </si>
+  <si>
+    <t>点点福袋道具补发</t>
+  </si>
+  <si>
+    <t>【已處理】日充獎勵補發</t>
+  </si>
+  <si>
+    <t>【已处理】玩家6元日充奖励补发</t>
+  </si>
+  <si>
+    <t>【已处理】限时礼包领取异常</t>
+  </si>
+  <si>
+    <t>【已处理】日充领取异常</t>
+  </si>
+  <si>
+    <t>【已處理】23日慶典的補發</t>
+  </si>
+  <si>
+    <t>【已处理】补发星星和点点礼包</t>
+  </si>
+  <si>
+    <t>【已处理】文化值冲榜排名奖励补发</t>
+  </si>
+  <si>
+    <t>【已处理】星星福袋补发</t>
+  </si>
+  <si>
+    <t>【已处理】补发道具</t>
+  </si>
+  <si>
+    <t>【已处理】点点福袋道具补发</t>
+  </si>
+  <si>
+    <t>【已處理】圓明園異常</t>
   </si>
   <si>
     <t>【已处理】限时礼包补发</t>
   </si>
   <si>
-    <t>【已处理】日充奖励补发</t>
-  </si>
-  <si>
-    <t>【已处理】出使令道具补发</t>
-  </si>
-  <si>
-    <t>【已处理】联盟-联盟副本开启异常</t>
-  </si>
-  <si>
-    <t>【已处理】日冲补发</t>
-  </si>
-  <si>
-    <t>【已處理】家族簽到</t>
-  </si>
-  <si>
-    <t>【已处理】万能活动-破蛋活动兑换积分异常</t>
-  </si>
-  <si>
-    <t>【已处理】家族—符号签到异常</t>
-  </si>
-  <si>
-    <t>【已处理】数据关联</t>
-  </si>
-  <si>
-    <t>【无需处理】翰林院-无法流放大臣</t>
-  </si>
-  <si>
-    <t>【已处理】家族-任务</t>
-  </si>
-  <si>
-    <t>V12勋章显示问题</t>
-  </si>
-  <si>
-    <t>東宮-太子爭霸</t>
-  </si>
-  <si>
-    <t>万能活动-积分兑换道具问题</t>
-  </si>
-  <si>
-    <t>【无需处理】联盟-盟战对战信息异常</t>
-  </si>
-  <si>
-    <t>一键征收—粮食士兵征收异常</t>
-  </si>
-  <si>
-    <t>【未处理，待修复】联盟-盟战奖励领取异常</t>
-  </si>
-  <si>
-    <t>【已处理】联盟-无法申请加联盟</t>
-  </si>
-  <si>
-    <t>精英服-校场</t>
-  </si>
-  <si>
-    <t>翰林院-大臣鳌拜战斗力消失</t>
-  </si>
-  <si>
-    <t>精英服-后宫</t>
-  </si>
-  <si>
-    <t>微服私访-无法挂机寻访</t>
-  </si>
-  <si>
-    <t>【已处理】充值-充值中的订单查询显示异常</t>
-  </si>
-  <si>
-    <t>【無需處理】任何頁面-都會轉圈報錯</t>
-  </si>
-  <si>
-    <t>【已处理】翰林院-名臣信息异常</t>
-  </si>
-  <si>
-    <t>【已处理】翰林院-大臣无法封爵</t>
-  </si>
-  <si>
-    <t>精英服—主线任务异常</t>
-  </si>
-  <si>
-    <t>精英服-登录提示数据异常</t>
-  </si>
-  <si>
-    <t>【无需处理】微服私访—寻访异常</t>
-  </si>
-  <si>
-    <t>精英服-世界副本-八国联军-伤害榜异常</t>
-  </si>
-  <si>
-    <t>精英服—木兰围场兑换异常</t>
-  </si>
-  <si>
-    <t>精英服—清帝强化道具不足</t>
-  </si>
-  <si>
-    <t>精英服-銀兩負數</t>
-  </si>
-  <si>
-    <t>【已处理】精英服-金銮殿-喜庆值活动</t>
-  </si>
-  <si>
-    <t>精英服—棋盘获得道具没有记入道具内</t>
-  </si>
-  <si>
-    <t>精英服-翰林院-赏赐珍宝异常</t>
-  </si>
-  <si>
-    <t>精英服-翰林院-名臣升级异常</t>
-  </si>
-  <si>
-    <t>精英服—珍宝阁异常</t>
-  </si>
-  <si>
-    <t>精英服--僵尸副本异常</t>
-  </si>
-  <si>
-    <t>【已处理】金銮殿-棋盘升级异常</t>
-  </si>
-  <si>
-    <t>精英服-八国联军卡顿并数据同步</t>
-  </si>
-  <si>
-    <t>【已处理】东宫-太子争霸显示异常</t>
-  </si>
-  <si>
-    <t>【已处理】微服私访-无法挂机寻访</t>
+    <t>【已处理】日充-补发日充奖励</t>
+  </si>
+  <si>
+    <t>【已处理】联盟财富补发</t>
+  </si>
+  <si>
+    <t>【已处理】活动-风云棋局奖励补发</t>
+  </si>
+  <si>
+    <t>【已处理】翰林院--银两消耗异常</t>
+  </si>
+  <si>
+    <t>【已处理】翰林院——大臣升级银两丢失</t>
+  </si>
+  <si>
+    <t>【已處理】元寶補發</t>
+  </si>
+  <si>
+    <t>【无需处理】万能活动-驱鬼符异常</t>
+  </si>
+  <si>
+    <t>【已处理】日充补发</t>
+  </si>
+  <si>
+    <t>【已处理】限时礼包--显示异常</t>
+  </si>
+  <si>
+    <t>【无需处理】强盟令补发</t>
+  </si>
+  <si>
+    <t>【已处理】名扬四海个人排名奖励补发</t>
+  </si>
+  <si>
+    <t>【已处理】联盟-联盟副本重复开启</t>
+  </si>
+  <si>
+    <t>【已处理】大内庆典奖励补发</t>
+  </si>
+  <si>
+    <t>【已处理】万能活动-端午活动联盟奖励不能领取</t>
+  </si>
+  <si>
+    <t>【已处理】更新奖励补发</t>
+  </si>
+  <si>
+    <t>【已处理】盟战奖励补发</t>
+  </si>
+  <si>
+    <t>【已处理】限时奖励补发</t>
+  </si>
+  <si>
+    <t>【已處理】珍寶閣—称号补发</t>
+  </si>
+  <si>
+    <t>【已处理】家族——无法签到</t>
+  </si>
+  <si>
+    <t>【已处理】天命37区账号被盗毁号处理</t>
+  </si>
+  <si>
+    <t>限时活动-贪官时间修改</t>
+  </si>
+  <si>
+    <t>【已处理】查询充值情况</t>
+  </si>
+  <si>
+    <t>【已处理】勋章修改</t>
+  </si>
+  <si>
+    <t>【已处理】专属大臣-强化</t>
+  </si>
+  <si>
+    <t>【已处理】微信公众号-原创征集奖</t>
+  </si>
+  <si>
+    <t>【已处理】封禁账号申请解封</t>
+  </si>
+  <si>
+    <t>【已处理】珍宝阁--称号扣除</t>
+  </si>
+  <si>
+    <t>【已处理】元寶消耗—特殊處理</t>
+  </si>
+  <si>
+    <t>【已处理】家族—昵称修改</t>
+  </si>
+  <si>
+    <t>副本-圆明园积分查询</t>
+  </si>
+  <si>
+    <t>【已处理】违规昵称处理</t>
+  </si>
+  <si>
+    <t>【已处理】联盟-盟战积分查询</t>
+  </si>
+  <si>
+    <t>【已处理】联盟密码修改</t>
+  </si>
+  <si>
+    <t>僵尸副本-僵尸王大臣id提示异常</t>
+  </si>
+  <si>
+    <t>金銮殿-升级每日任务异常</t>
+  </si>
+  <si>
+    <t>【已回访】微服私访-数据异常</t>
+  </si>
+  <si>
+    <t>玩家无法联络客服</t>
+  </si>
+  <si>
+    <t>【已处理】登陆-报错</t>
+  </si>
+  <si>
+    <t>校场-复仇异常</t>
+  </si>
+  <si>
+    <t>征战世界-闪退</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿-限时消耗资质果异常</t>
+  </si>
+  <si>
+    <t>金銮殿——成就奖励领取异常</t>
+  </si>
+  <si>
+    <t>僵尸副本时间异常</t>
+  </si>
+  <si>
+    <t>副本-僵尸副本异常</t>
+  </si>
+  <si>
+    <t>【已处理】联盟-盟战奖励异常</t>
+  </si>
+  <si>
+    <t>【已处理】联盟-盟战奖励领取异常</t>
+  </si>
+  <si>
+    <t>【无需处理】金銮殿-风云棋局步数异常</t>
+  </si>
+  <si>
+    <t>【已处理】珍宝阁-勋章未显示</t>
+  </si>
+  <si>
+    <t>天坛-祈福最终奖励显示异常</t>
+  </si>
+  <si>
+    <t>【已处理】翰林院-大臣珍宝剩余数量负1异常</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿-摇钱树异常</t>
+  </si>
+  <si>
+    <t>【已处理】万能活动-除夕积分排名异常</t>
+  </si>
+  <si>
+    <t>后台-新翰林院道具消耗显示异常</t>
+  </si>
+  <si>
+    <t>东宫-赏赐异常</t>
+  </si>
+  <si>
+    <t>校场——出使攻打异常</t>
+  </si>
+  <si>
+    <t>【无需处理】后宫——御花园亲家列表异常</t>
+  </si>
+  <si>
+    <t>【待处理】金銮殿-限时奖励资质果消耗异常</t>
+  </si>
+  <si>
+    <t>【无需处理】翰林院-升级技能异常</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿——成就奖励领取异常</t>
+  </si>
+  <si>
+    <t>翰林院——大臣突破失败</t>
+  </si>
+  <si>
+    <t>联盟——每日建设异常</t>
+  </si>
+  <si>
+    <t>養心殿-數值顯示問題</t>
+  </si>
+  <si>
+    <t>金銮殿-福利活动惩罚贪官收取银两一次</t>
+  </si>
+  <si>
+    <t>天坛——祈福进香道具异常</t>
+  </si>
+  <si>
+    <t>金銮殿——摇钱树道具获得异常</t>
+  </si>
+  <si>
+    <t>金銮殿——任务异常</t>
+  </si>
+  <si>
+    <t>翰林院-招募提示珍寶不足</t>
+  </si>
+  <si>
+    <t>万能活动-除夕版面出错</t>
+  </si>
+  <si>
+    <t>盟战-派遣太子显示异常</t>
+  </si>
+  <si>
+    <t>金銮殿-国库负数</t>
+  </si>
+  <si>
+    <t>校場-隨機問題</t>
+  </si>
+  <si>
+    <t>【无需处理】养心殿——元宝消耗异常</t>
+  </si>
+  <si>
+    <t>后宫——交泰殿异常</t>
+  </si>
+  <si>
+    <t>龙凤殿-查看亲家信息异常</t>
+  </si>
+  <si>
+    <t>活动副本——僵尸军团血量异常</t>
+  </si>
+  <si>
+    <t>翰林院——大臣丢失</t>
+  </si>
+  <si>
+    <t>【无需处理】盟战-盟战派遣开战日提示未参加</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿——国力值异常</t>
+  </si>
+  <si>
+    <t>家族-族长信息异常</t>
+  </si>
+  <si>
+    <t>【已处理】养心殿——名望值升级异常</t>
+  </si>
+  <si>
+    <t>【待跟进】养心殿-数据异常</t>
+  </si>
+  <si>
+    <t>【已处理】翰林院——大臣升级异常</t>
+  </si>
+  <si>
+    <t>【无需处理】翰林院--成长点突破异常</t>
+  </si>
+  <si>
+    <t>【已處理】金鑾殿-風雲棋牌</t>
+  </si>
+  <si>
+    <t>【已处理】登录数据异常问题</t>
+  </si>
+  <si>
+    <t>【已处理】登录-卡在宫女界面</t>
+  </si>
+  <si>
+    <t>【已处理】翰林院-大臣经验丢失</t>
+  </si>
+  <si>
+    <t>【已处理，待修复】翰林院-限时活动资质果消耗异常</t>
+  </si>
+  <si>
+    <t>充值-特权异常</t>
+  </si>
+  <si>
+    <t>账号——玩家各个地方报错</t>
+  </si>
+  <si>
+    <t>【无法复现】后宫——交泰殿报错</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿——国力冲榜异常</t>
+  </si>
+  <si>
+    <t>【已处理】家族—家族排行错误</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿—名称强化异常</t>
+  </si>
+  <si>
+    <t>征服世界-点击征战转圈问题</t>
+  </si>
+  <si>
+    <t>【已处理】联盟——盟战派遣信息异常</t>
+  </si>
+  <si>
+    <t>聊天-聊天记录消失</t>
+  </si>
+  <si>
+    <t>【已处理】家族无法签到</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿-风云棋盘数据异常</t>
+  </si>
+  <si>
+    <t>【已处理】副本-僵尸副本异常</t>
+  </si>
+  <si>
+    <t>【已处理】国内4.6下载万能活动显示</t>
+  </si>
+  <si>
+    <t>风云棋盘-2级棋盘投掷点数和走的格子数异常</t>
+  </si>
+  <si>
+    <t>养心殿-论战对战提示异常</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿——名臣招募异常</t>
+  </si>
+  <si>
+    <t>【无需处理】珍宝阁-称号消失</t>
+  </si>
+  <si>
+    <t>【无需处理】商城-日充礼包领取时显示异常</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿-名臣招募异常</t>
+  </si>
+  <si>
+    <t>【已处理】翰林院-大臣封爵异常</t>
+  </si>
+  <si>
+    <t>【无需处理】后宫-妃子宫斗力减少</t>
+  </si>
+  <si>
+    <t>【已处理】风云棋盘-进入棋盘赠送的骰子没有给</t>
+  </si>
+  <si>
+    <t>【已处理】珍宝阁-圆明园赠礼异常</t>
+  </si>
+  <si>
+    <t>【已處理】金銮殿-名臣强化异常</t>
+  </si>
+  <si>
+    <t>联盟-盟战戚继光分身派遣异常</t>
+  </si>
+  <si>
+    <t>【无需处理】僵尸王--卡顿异常</t>
+  </si>
+  <si>
+    <t>【无需处理】后宫-妃子换装无法显示</t>
+  </si>
+  <si>
+    <t>【已处理】翰林院-康熙异常</t>
+  </si>
+  <si>
+    <t>【已处理】后宫-左侧殿报错</t>
+  </si>
+  <si>
+    <t>【已处理】家族-转让异常</t>
+  </si>
+  <si>
+    <t>账号-闪退</t>
+  </si>
+  <si>
+    <t>【无需处理】账号-后宫积分、兵力减少</t>
+  </si>
+  <si>
+    <t>【已处理】游戏登录界面提示异常</t>
+  </si>
+  <si>
+    <t>【已处理】东宫-太子综合属性问题</t>
+  </si>
+  <si>
+    <t>东宫-太子争霸数据异常</t>
+  </si>
+  <si>
+    <t>【无需处理】圆明园-排行榜奖励问题</t>
+  </si>
+  <si>
+    <t>【已处理，未修复】金銮殿——成就奖励领取异常</t>
+  </si>
+  <si>
+    <t>【无需处理】翰林院-资质果显示异常</t>
+  </si>
+  <si>
+    <t>【已处理】家族-族长无法转让</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿-主线任务国力任务异常</t>
+  </si>
+  <si>
+    <t>【无需处理】外务府-玩家达到解锁外国大臣条件异常</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿-跨服榜单联盟异常</t>
+  </si>
+  <si>
+    <t>账号-报错提示</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿-限时礼包显示异常</t>
+  </si>
+  <si>
+    <t>【无需处理】登录-提示账号在别处登录</t>
+  </si>
+  <si>
+    <t>【无需处理】万能活动-破蛋活动奖励无法领取</t>
+  </si>
+  <si>
+    <t>八国联军—无法进行操作</t>
+  </si>
+  <si>
+    <t>【未处理，待修复】国力榜单-数值不对应</t>
+  </si>
+  <si>
+    <t>【已处理】國力榜單-數值和正常國力不符合</t>
+  </si>
+  <si>
+    <t>【已处理】家族——家族申请列表异常</t>
+  </si>
+  <si>
+    <t>【无需处理】金銮殿-文化值冲榜限时活动异常</t>
+  </si>
+  <si>
+    <t>【已处理】东宫-太子争霸异常</t>
+  </si>
+  <si>
+    <t>【未处理，待修复】联盟-盟战对战结果异常</t>
+  </si>
+  <si>
+    <t>【已處理】金鑾殿-文化值沖榜</t>
+  </si>
+  <si>
+    <t>【已处理【游历天下-本周奖励无法查看</t>
+  </si>
+  <si>
+    <t>【无需处理】金銮殿-文化值榜单异常</t>
+  </si>
+  <si>
+    <t>【无法复现】联盟--副本攻打异常</t>
+  </si>
+  <si>
+    <t>【无需处理】翰林院-大臣升级银两异常</t>
+  </si>
+  <si>
+    <t>【无需处理】后宫-妃子宫斗力下降</t>
+  </si>
+  <si>
+    <t>【 无需处理】金銮殿——文化值冲榜异常</t>
+  </si>
+  <si>
+    <t>【无需处理】盟战-副盟主数量异常</t>
+  </si>
+  <si>
+    <t>【无需处理】翰林院-大臣资质异常</t>
+  </si>
+  <si>
+    <t>【无需处理】龙凤殿-皇子异常</t>
+  </si>
+  <si>
+    <t>【已处理】聊天频道——发言异常</t>
+  </si>
+  <si>
+    <t>【无需处理】小活动-腊八活动数据查询</t>
+  </si>
+  <si>
+    <t>【无需处理】东宫-太子数据异常</t>
+  </si>
+  <si>
+    <t>【无需处理】东宫-太子综合能力异常</t>
+  </si>
+  <si>
+    <t>【已处理】校场-随机出使</t>
+  </si>
+  <si>
+    <t>【无需处理】联盟-成员联盟信息数据异常</t>
+  </si>
+  <si>
+    <t>【已處理】征服世界-到達2-10后無法進入下一個頁面</t>
+  </si>
+  <si>
+    <t>【无需处理】圆明园-点击击杀记录卡住</t>
+  </si>
+  <si>
+    <t>【已处理】囚犯-个人活动积分异常</t>
+  </si>
+  <si>
+    <t>【已处理】精英服—圓明園禮包無法贈送</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿-限时礼包异常</t>
+  </si>
+  <si>
+    <t>【已处理】登录-游戏被锁定</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿—主线任务异常</t>
+  </si>
+  <si>
+    <t>【无需处理】校场-大臣属性不一致</t>
+  </si>
+  <si>
+    <t>【无需处理】圆明园-积分异常</t>
+  </si>
+  <si>
+    <t>【无需处理】养心殿-本周名望值涨幅显示异常</t>
+  </si>
+  <si>
+    <t>【已处理】养心殿-养心殿数据异常</t>
+  </si>
+  <si>
+    <t>【已处理】】登录-错误代码003</t>
+  </si>
+  <si>
+    <t>【已处理】绑定-无法实名认证</t>
+  </si>
+  <si>
+    <t>【已处理】圆明园-提示操作超时</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿-英魂强化异常</t>
+  </si>
+  <si>
+    <t>【无需处理】东宫-太子血量异常</t>
+  </si>
+  <si>
+    <t>【已处理，待修复】聊天-无法在家族频道发言</t>
+  </si>
+  <si>
+    <t>【已处理】圆明园-提示撤退后才可再次寻宝</t>
+  </si>
+  <si>
+    <t>充值-支付失败</t>
+  </si>
+  <si>
+    <t>【无需处理】养心殿-名望值涨幅异常</t>
+  </si>
+  <si>
+    <t>【无需处理】圆明园-积分查询</t>
+  </si>
+  <si>
+    <t>【无需处理】金銮殿--士兵丢失</t>
+  </si>
+  <si>
+    <t>内网-外务府异常</t>
+  </si>
+  <si>
+    <t>【无需处理】太子争霸--血量异常</t>
+  </si>
+  <si>
+    <t>【无需处理】账号-登录异常</t>
+  </si>
+  <si>
+    <t>金銮殿-实际国力和国力涨幅不符</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿-惩罚罪犯积分异常</t>
+  </si>
+  <si>
+    <t>【已处理】副本-圆明园报错异常</t>
+  </si>
+  <si>
+    <t>【无需处理】游历天下--挑训次数异常</t>
+  </si>
+  <si>
+    <t>【已处理】校场-抓捕大内数据异常</t>
+  </si>
+  <si>
+    <t>【无需处理】应用宝版本--充值提示异常</t>
+  </si>
+  <si>
+    <t>【已处理】名臣招募-强化异常</t>
+  </si>
+  <si>
+    <t>【已处理】家族-家族签到符号异常</t>
+  </si>
+  <si>
+    <t>【已处理】圆明园-积分查询</t>
+  </si>
+  <si>
+    <t>【已处理】圆明园-击杀少校积分异常</t>
+  </si>
+  <si>
+    <t>【已处理】名扬四海-俞龙令获取异常</t>
+  </si>
+  <si>
+    <t>【无需处理】运营体验服-赠送功能异常</t>
+  </si>
+  <si>
+    <t>【已修复、未发布】圆明园-游戏内分波投放文本显示异常</t>
+  </si>
+  <si>
+    <t>【已处理】银两丢失异常</t>
+  </si>
+  <si>
+    <t>【无需处理】家族-家族榜显示异常</t>
+  </si>
+  <si>
+    <t>【已处理】微服私访-提示服务器繁忙</t>
+  </si>
+  <si>
+    <t>【已处理】聊天频道提示数据异常</t>
+  </si>
+  <si>
+    <t>【无需处理】联盟-联盟副本重复开启</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿-粮库上限异常</t>
+  </si>
+  <si>
+    <t>【无需处理】东宫-太子争霸图标不见</t>
+  </si>
+  <si>
+    <t>【已处理】养心殿，寻访--提示服务器繁忙链接失败</t>
+  </si>
+  <si>
+    <t>【已处理】聊天频道--数据异常</t>
+  </si>
+  <si>
+    <t>【已处理】文化值冲榜--榜单排名显示异常</t>
+  </si>
+  <si>
+    <t>【无需处理】盟战-派遣伏兵战斗力变少</t>
+  </si>
+  <si>
+    <t>【已处理】珍宝阁-称号无法显示</t>
+  </si>
+  <si>
+    <t>【已处理】翰林院-突破异常后成长点丢失</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿-强化大臣英魂不足</t>
+  </si>
+  <si>
+    <t>【已处理】聊天-输入框长按不显示菜单</t>
+  </si>
+  <si>
+    <t>【无需处理】金銮殿-银两、士兵粮食减少</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿-粮食丢失</t>
+  </si>
+  <si>
+    <t>【无需处理】东宫-太子属性降低</t>
+  </si>
+  <si>
+    <t>【无需处理】万能活动-筑船活动积分查询</t>
+  </si>
+  <si>
+    <t>【已处理】外务府-同步数据失败提示问题</t>
+  </si>
+  <si>
+    <t>【已处理】联盟-人数上限与等级不符</t>
+  </si>
+  <si>
+    <t>【已處理】养心殿—玩家领取奖励异常</t>
+  </si>
+  <si>
+    <t>【无需处理】外务府-异常修复奖励无法领取</t>
+  </si>
+  <si>
+    <t>【已处理】微服私访-服务器繁忙</t>
+  </si>
+  <si>
+    <t>【已处理】珍宝-珍宝道具不足</t>
+  </si>
+  <si>
+    <t>【已处理】金銮殿-主线任务文案错误</t>
+  </si>
+  <si>
+    <t>【无需处理】金銮殿-士兵减少</t>
+  </si>
+  <si>
+    <t>【无需处理】勤政-士兵，粮食数量减少</t>
+  </si>
+  <si>
+    <t>【已处理】勤政-粮食数量异常</t>
+  </si>
+  <si>
+    <t>【已处理】日充奖励领取强盟令异常</t>
+  </si>
+  <si>
+    <t>【已处理】勤政-士兵数量减少</t>
+  </si>
+  <si>
+    <t>【已处理】勤政-士兵数量异常</t>
+  </si>
+  <si>
+    <t>【已处理】勤政-士兵粮食数量异常</t>
+  </si>
+  <si>
+    <t>【已处理】家族—族长转让异常后遗症</t>
+  </si>
+  <si>
+    <t>【已处理】名扬四海-称号没有获得且没有显示海上霸主</t>
   </si>
   <si>
     <t>【已处理】修改密码</t>
   </si>
   <si>
+    <t>【已处理】忘记密码</t>
+  </si>
+  <si>
     <t>【已處理】修改密碼</t>
   </si>
   <si>
-    <t>【已处理】玩家忘记密码</t>
-  </si>
-  <si>
-    <t>当乐平台登录数据异常</t>
-  </si>
-  <si>
-    <t>【已处理】当乐平台登陆数据异常</t>
+    <t>【已處理】密碼忘記</t>
+  </si>
+  <si>
+    <t>【已处理】修改账号密码</t>
+  </si>
+  <si>
+    <t>【已处理】账号修改密码</t>
+  </si>
+  <si>
+    <t>【已处理】当乐平台添加设备号</t>
+  </si>
+  <si>
+    <t>【已處理】當樂平台無法登錄</t>
+  </si>
+  <si>
+    <t>【已处理】登录-当乐平台数据异常</t>
+  </si>
+  <si>
+    <t>【已处理】当乐账号登陆数据异常</t>
   </si>
   <si>
     <t>【已处理】当乐平台数据异常</t>
   </si>
   <si>
-    <t>【已处理】当乐平台添加设备号</t>
-  </si>
-  <si>
-    <t>修改綁定郵箱</t>
-  </si>
-  <si>
-    <t>修改绑定邮箱</t>
-  </si>
-  <si>
-    <t>【已处理】修改绑定手机</t>
+    <t>【已處理】當樂平台數據異常</t>
+  </si>
+  <si>
+    <t>【已处理】当乐账号登陆提示数据异常</t>
+  </si>
+  <si>
+    <t>【已處理】當樂無法登錄</t>
+  </si>
+  <si>
+    <t>【已处理】当乐数据异常</t>
+  </si>
+  <si>
+    <t>玩家被盗号需更改实名信息</t>
+  </si>
+  <si>
+    <t>实名绑定修改</t>
+  </si>
+  <si>
+    <t>【已处理】修改绑定手机号</t>
+  </si>
+  <si>
+    <t>【已处理】账号绑定信息修改</t>
+  </si>
+  <si>
+    <t>【已回访】绑定信息修改</t>
   </si>
   <si>
     <t>平台</t>
@@ -247,6 +897,9 @@
   </si>
   <si>
     <t>安卓91</t>
+  </si>
+  <si>
+    <t>太祖</t>
   </si>
   <si>
     <t>漏单订单总数</t>
@@ -301,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -320,7 +973,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>3414282</v>
+        <v>3517940</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>2</v>
@@ -328,7 +981,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>3410833</v>
+        <v>3516989</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -336,7 +989,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>3413642</v>
+        <v>3513768</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>4</v>
@@ -344,7 +997,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>3409162</v>
+        <v>3512877</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
@@ -352,7 +1005,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>3400867</v>
+        <v>3506874</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -360,7 +1013,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>3405562</v>
+        <v>3506858</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>7</v>
@@ -368,10 +1021,554 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>3401629</v>
+        <v>3516364</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>3517182</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>3513092</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>3511564</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>3507697</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>3505885</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>3508517</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>3502815</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>3502766</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>3508257</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>3507250</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>3508046</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>3506221</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>3508000</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>3498852</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>3505500</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>3504672</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>3506173</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>3505456</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>3501795</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>3504628</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>3501733</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>3501647</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>3503613</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>3503610</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>3499467</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>3501478</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>3504271</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>3503492</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>3501442</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>3504196</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>3505027</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>3503360</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>3504174</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>3503325</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>3500993</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>3496724</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>3503229</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>3498538</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>3500919</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>3494884</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>3498484</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>3503092</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>3497959</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>3500801</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>3494690</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>3498237</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>3495624</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>3492387</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>3492091</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>3486388</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>3487053</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>3482781</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>3482263</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>3466864</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>3469969</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>3474975</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>3474961</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>3475432</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>3477624</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>3460994</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>3477277</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>3475113</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>3474521</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>3472836</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>3473835</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>3468307</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>3470519</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>3472216</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -381,7 +1578,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -400,26 +1597,138 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>3412737</v>
+        <v>3505829</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>3414177</v>
+        <v>3505522</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>3410603</v>
+        <v>3504687</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>3500982</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>3500814</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>3497877</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>3495111</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>3493006</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>3487945</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>3483296</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>3484428</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>3486037</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>3487049</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>3475969</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>3466896</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>3477016</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>3473676</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -429,7 +1738,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B208"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -448,10 +1757,1658 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>3408497</v>
+        <v>3518414</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>3510723</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3521019</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>3513921</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>3517732</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>3515207</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>3519018</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>3518181</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>3515196</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>3518147</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>3518089</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>3510568</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>3513674</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>3518074</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>3517501</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>3517465</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>3506931</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>3506904</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>3515125</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>3509435</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>3513500</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>3510466</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>3514535</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>3514501</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>3506826</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>3513382</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>3514338</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>3514336</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>3509324</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>3514308</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>3514244</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>3499985</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>3516015</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>3512497</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>3508982</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>3506658</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>3512441</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>3508966</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>3512295</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>3507995</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>3508856</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>3510203</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>3508752</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>3513005</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>3507838</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>3506460</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>3505848</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>3502776</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>3506375</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>3511048</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>3506303</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>3502608</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>3506294</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>3498907</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>3508049</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>3505513</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>3502466</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>3504676</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>3504641</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>3504534</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>3505364</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>3503779</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>3503771</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>3503764</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>3503730</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>3502333</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>3498723</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>3502280</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>3504372</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>3502256</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>3506001</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>3505058</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>3505047</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>3503347</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>3503326</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>3496711</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>3504076</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>3503155</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>3497984</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>3500821</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>3500773</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>3502031</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
+        <v>3496561</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
+        <v>3494683</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
+        <v>3498280</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
+        <v>3488900</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
+        <v>3500499</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0">
+        <v>3499226</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
+        <v>3488879</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0">
+        <v>3496387</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>3497631</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
+        <v>3488840</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
+        <v>3494610</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
+        <v>3494605</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
+        <v>3495682</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
+        <v>3496317</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>3497411</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>3497367</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>3499042</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
+        <v>3483987</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
+        <v>3493961</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
+        <v>3493939</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
+        <v>3496022</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
+        <v>3479827</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
+        <v>3483822</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>3479755</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
+        <v>3493532</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
+        <v>3493489</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
+        <v>3494181</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
+        <v>3493453</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
+        <v>3479669</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
+        <v>3491503</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0">
+        <v>3486954</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0">
+        <v>3486783</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0">
+        <v>3492322</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0">
+        <v>3491317</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0">
+        <v>3493085</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0">
+        <v>3486748</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0">
+        <v>3492078</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0">
+        <v>3488172</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0">
+        <v>3489860</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0">
+        <v>3489847</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0">
+        <v>3487735</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0">
+        <v>3489572</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0">
+        <v>3489556</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0">
+        <v>3487646</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0">
+        <v>3484626</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0">
+        <v>3486349</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0">
+        <v>3485985</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0">
+        <v>3481828</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0">
+        <v>3483309</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0">
+        <v>3489005</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0">
+        <v>3478946</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0">
+        <v>3468937</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0">
+        <v>3481712</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0">
+        <v>3484390</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0">
+        <v>3485647</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0">
+        <v>3487105</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0">
+        <v>3481663</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0">
+        <v>3482886</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0">
+        <v>3482882</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0">
+        <v>3480866</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0">
+        <v>3481548</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0">
+        <v>3483126</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0">
+        <v>3480723</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0">
+        <v>3480703</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0">
+        <v>3484073</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0">
+        <v>3481345</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0">
+        <v>3476935</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0">
+        <v>3475933</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0">
+        <v>3475873</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0">
+        <v>3480410</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0">
+        <v>3479177</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0">
+        <v>3482201</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0">
+        <v>3475815</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0">
+        <v>3482164</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0">
+        <v>3468707</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0">
+        <v>3480330</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0">
+        <v>3476698</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0">
+        <v>3476631</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0">
+        <v>3475585</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0">
+        <v>3477823</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0">
+        <v>3477819</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0">
+        <v>3475573</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0">
+        <v>3477815</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0">
+        <v>3476493</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0">
+        <v>3481022</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0">
+        <v>3479039</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0">
+        <v>3478254</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0">
+        <v>3480042</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0">
+        <v>3480031</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0">
+        <v>3480029</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0">
+        <v>3477692</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0">
+        <v>3475454</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0">
+        <v>3474971</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0">
+        <v>3477611</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0">
+        <v>3468581</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0">
+        <v>3476365</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0">
+        <v>3478211</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0">
+        <v>3460980</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0">
+        <v>3466685</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0">
+        <v>3475288</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0">
+        <v>3477283</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0">
+        <v>3475128</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0">
+        <v>3477263</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0">
+        <v>3476074</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0">
+        <v>3475098</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0">
+        <v>3477188</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0">
+        <v>3478027</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0">
+        <v>3474544</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0">
+        <v>3478014</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0">
+        <v>3460869</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0">
+        <v>3477080</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0">
+        <v>3474515</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0">
+        <v>3477055</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0">
+        <v>3475034</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0">
+        <v>3477011</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0">
+        <v>3460850</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0">
+        <v>3460847</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0">
+        <v>3473896</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0">
+        <v>3469621</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0">
+        <v>3474374</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0">
+        <v>3470909</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0">
+        <v>3474317</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0">
+        <v>3473670</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0">
+        <v>3468177</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0">
+        <v>3464635</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -461,7 +3418,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -480,274 +3437,202 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>3416489</v>
+        <v>3513935</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>3416456</v>
+        <v>3513898</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>3417008</v>
+        <v>3513210</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>3402916</v>
+        <v>3506677</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>3416305</v>
+        <v>3507906</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>3402888</v>
+        <v>3507248</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>3415298</v>
+        <v>3496578</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>3407794</v>
+        <v>3488932</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>3413790</v>
+        <v>3494464</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>3413647</v>
+        <v>3486802</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>3413627</v>
+        <v>3488208</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>23</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>3412171</v>
+        <v>3479520</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>3413355</v>
+        <v>3484859</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>3408728</v>
+        <v>3486108</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>26</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>3412036</v>
+        <v>3481754</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>3407290</v>
+        <v>3482421</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>3410282</v>
+        <v>3480564</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>3410148</v>
+        <v>3480555</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>30</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>3410129</v>
+        <v>3476379</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>31</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>3402566</v>
+        <v>3467946</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>32</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>3400891</v>
+        <v>3474192</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>33</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>3410077</v>
+        <v>3473464</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>34</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>3408281</v>
+        <v>3472620</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>35</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>3400879</v>
+        <v>3473424</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>3410027</v>
+        <v>3467809</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>3404854</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>3408226</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>3403717</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>3402525</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>3406983</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>3407086</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>3406801</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>3401667</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>3406696</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>46</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -757,7 +3642,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -776,50 +3661,130 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>3411755</v>
+        <v>3516471</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>3417016</v>
+        <v>3513225</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>48</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>3412492</v>
+        <v>3498560</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>47</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>3415068</v>
+        <v>3497731</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>49</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>3413479</v>
+        <v>3495832</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>49</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>3402468</v>
+        <v>3499225</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>47</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>3494377</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>3488491</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>3483594</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>3488250</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>3490053</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>3468949</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>3484097</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>3460970</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>3467983</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>3472713</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -829,7 +3794,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -848,58 +3813,42 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>3415624</v>
+        <v>3509436</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>50</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>3415591</v>
+        <v>3507989</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>51</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>3415588</v>
+        <v>3502486</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>51</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>3414297</v>
+        <v>3503810</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>52</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>3414274</v>
+        <v>3482648</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>3411655</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>3415256</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>53</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -909,63 +3858,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="100" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>3411754</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>3409458</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>3411462</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>3407156</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -976,31 +3869,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>57</v>
+        <v>274</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>58</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>60</v>
+        <v>277</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
@@ -1008,15 +3901,15 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>62</v>
+        <v>279</v>
       </c>
       <c r="B5" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>63</v>
+        <v>280</v>
       </c>
       <c r="B6" s="0">
         <v>3</v>
@@ -1024,23 +3917,23 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>64</v>
+        <v>281</v>
       </c>
       <c r="B7" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="B8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>66</v>
+        <v>283</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
@@ -1048,7 +3941,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>67</v>
+        <v>284</v>
       </c>
       <c r="B10" s="0">
         <v>0</v>
@@ -1056,7 +3949,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>68</v>
+        <v>285</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -1064,7 +3957,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>69</v>
+        <v>286</v>
       </c>
       <c r="B12" s="0">
         <v>0</v>
@@ -1072,7 +3965,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>70</v>
+        <v>287</v>
       </c>
       <c r="B13" s="0">
         <v>0</v>
@@ -1080,7 +3973,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>71</v>
+        <v>288</v>
       </c>
       <c r="B14" s="0">
         <v>0</v>
@@ -1088,7 +3981,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>72</v>
+        <v>289</v>
       </c>
       <c r="B15" s="0">
         <v>0</v>
@@ -1096,7 +3989,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>73</v>
+        <v>290</v>
       </c>
       <c r="B16" s="0">
         <v>0</v>
@@ -1104,7 +3997,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="B17" s="0">
         <v>0</v>
@@ -1112,7 +4005,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>75</v>
+        <v>292</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -1120,26 +4013,34 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="B19" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="B20" s="0">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="B21" s="0">
-        <v>17</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B22" s="0">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
